--- a/data/AO_and_BOM/AO-BOM.xlsx
+++ b/data/AO_and_BOM/AO-BOM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,30 +434,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>AO</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>BOM_ID</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AO00026774</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10048</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>AO00025892</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10050</t>
-        </is>
+      <c r="B3" t="n">
+        <v>10050</v>
       </c>
     </row>
   </sheetData>
